--- a/ExcelConverter/output/excel/6 怪物表.xlsx
+++ b/ExcelConverter/output/excel/6 怪物表.xlsx
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>cs</t>
   </si>
@@ -176,9 +176,6 @@
   </si>
   <si>
     <t>怪物表</t>
-  </si>
-  <si>
-    <t>怪物模型大小（默认100=1）</t>
   </si>
   <si>
     <t>Id</t>
@@ -294,9 +291,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -327,7 +324,121 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,80 +452,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -423,38 +460,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -462,14 +467,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -520,54 +517,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -610,12 +631,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -665,24 +680,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,6 +702,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -716,21 +752,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,15 +782,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -787,21 +799,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -810,10 +807,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -822,133 +819,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1380,7 +1377,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1496,70 +1493,74 @@
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
-      <c r="O4" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="O4" s="12"/>
       <c r="P4" s="19"/>
     </row>
     <row r="5" s="5" customFormat="1" ht="15" spans="1:17">
       <c r="A5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="H5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="I5" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="M5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="N5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="O5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="P5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="Q5" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" spans="1:17">
@@ -1567,7 +1568,7 @@
         <v>100001</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="6">
         <v>1160146</v>
@@ -1612,7 +1613,7 @@
         <v>100002</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="6">
         <v>1160035</v>
@@ -1649,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="6">
         <v>110001</v>
@@ -1660,7 +1661,7 @@
         <v>100003</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="6">
         <v>1160031</v>
@@ -1697,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="6">
         <v>110001</v>
@@ -1708,7 +1709,7 @@
         <v>100004</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="6">
         <v>1160048</v>
@@ -1745,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q9" s="6">
         <v>110001</v>
@@ -1756,7 +1757,7 @@
         <v>100005</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="6">
         <v>1160036</v>
@@ -1793,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q10" s="6">
         <v>110001</v>
@@ -1804,7 +1805,7 @@
         <v>100006</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="6">
         <v>1160006</v>
@@ -1841,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="6">
         <v>110002</v>
@@ -1852,7 +1853,7 @@
         <v>100007</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="6">
         <v>1160037</v>
@@ -1889,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="6">
         <v>110002</v>
@@ -1900,7 +1901,7 @@
         <v>100008</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="6">
         <v>1160014</v>
@@ -1937,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="6">
         <v>110002</v>
@@ -1948,7 +1949,7 @@
         <v>100009</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="6">
         <v>1160022</v>
@@ -1985,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q14" s="6">
         <v>110002</v>
@@ -1996,7 +1997,7 @@
         <v>100010</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="6">
         <v>1160016</v>
@@ -2033,7 +2034,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="6">
         <v>110002</v>
@@ -2044,7 +2045,7 @@
         <v>100011</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="6">
         <v>1160032</v>
@@ -2081,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q16" s="6">
         <v>110003</v>
